--- a/raw_CRDS.xlsx
+++ b/raw_CRDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\CRDS_Calcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF25207B-FA7A-4402-8BB8-EEB5030E68CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AF25207B-FA7A-4402-8BB8-EEB5030E68CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F252BD-0F96-4F43-AD9E-01137293DBE8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{23922ED4-BB16-441B-8D90-EA77BFB878B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{23922ED4-BB16-441B-8D90-EA77BFB878B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Inulin Summer" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="151">
   <si>
     <t>Time (min)</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>P41</t>
-  </si>
-  <si>
-    <t>P04</t>
   </si>
   <si>
     <t>P05</t>
@@ -941,25 +938,25 @@
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -982,7 +979,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1012,10 +1009,10 @@
       </c>
       <c r="T2" s="2"/>
       <c r="V2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1059,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>-0.75</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>-21.43</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>-0.43333333299999999</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>-22.17</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>-0.1</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>-22.72</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -1248,7 +1245,7 @@
       </c>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.233333333</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.61666666699999995</v>
       </c>
@@ -1348,7 +1345,7 @@
         <v>305.01</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.91666666699999999</v>
       </c>
@@ -1398,7 +1395,7 @@
         <v>346.8</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.2166666669999999</v>
       </c>
@@ -1448,7 +1445,7 @@
         <v>323.73</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.5333333330000001</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>380.81</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.85</v>
       </c>
@@ -1548,7 +1545,7 @@
         <v>995.51</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2.1666666669999999</v>
       </c>
@@ -1598,7 +1595,7 @@
         <v>1713.79</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2.5333333329999999</v>
       </c>
@@ -1648,7 +1645,7 @@
         <v>1805.2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>2.8</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>1968.83</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>3.1666666669999999</v>
       </c>
@@ -1748,7 +1745,7 @@
         <v>2145.4499999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>3.516666667</v>
       </c>
@@ -1798,7 +1795,7 @@
         <v>1962.59</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>3.8333333330000001</v>
       </c>
@@ -1844,7 +1841,7 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>4.1666666670000003</v>
       </c>
@@ -1890,7 +1887,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J21" s="8">
         <v>4.3166666669999998</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>1508.65</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +1915,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1948,7 +1945,7 @@
       </c>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>-1.0833333329999999</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>-22.09</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>-0.8</v>
       </c>
@@ -2092,7 +2089,7 @@
         <v>-21.47</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>-0.48333333299999998</v>
       </c>
@@ -2140,7 +2137,7 @@
         <v>-21.15</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>-0.16666666699999999</v>
       </c>
@@ -2180,7 +2177,7 @@
       </c>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>0</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>175.98</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>0.16666666699999999</v>
       </c>
@@ -2278,7 +2275,7 @@
         <v>355.08</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>0.55000000000000004</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>311.98</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>0.88333333300000005</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>278.98</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>1.25</v>
       </c>
@@ -2428,7 +2425,7 @@
         <v>183.96</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>1.55</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>145.65</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>1.85</v>
       </c>
@@ -2528,7 +2525,7 @@
         <v>97.18</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>2.1666666669999999</v>
       </c>
@@ -2574,7 +2571,7 @@
         <v>94.87</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>2.5333333329999999</v>
       </c>
@@ -2620,7 +2617,7 @@
         <v>75.180000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>2.85</v>
       </c>
@@ -2662,7 +2659,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>3.1833333330000002</v>
       </c>
@@ -2700,7 +2697,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>3.5333333329999999</v>
       </c>
@@ -2738,7 +2735,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>3.8666666670000001</v>
       </c>
@@ -2776,7 +2773,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>4.1833333330000002</v>
       </c>
@@ -2810,7 +2807,7 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>4.55</v>
       </c>
@@ -2840,7 +2837,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2866,7 +2863,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2888,7 +2885,7 @@
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2923,25 +2920,25 @@
       <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2964,7 +2961,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2994,10 +2991,10 @@
       </c>
       <c r="T2" s="2"/>
       <c r="V2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3041,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>-0.76666666699999997</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>-25.53</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>-0.48333333299999998</v>
       </c>
@@ -3144,7 +3141,7 @@
         <v>-25.98</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>-0.2</v>
       </c>
@@ -3194,7 +3191,7 @@
         <v>-25.94</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -3230,7 +3227,7 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.2</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.56666666700000001</v>
       </c>
@@ -3330,7 +3327,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.86666666699999995</v>
       </c>
@@ -3380,7 +3377,7 @@
         <v>181.99</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.1666666670000001</v>
       </c>
@@ -3430,7 +3427,7 @@
         <v>258.02</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.4666666669999999</v>
       </c>
@@ -3480,7 +3477,7 @@
         <v>319.25</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.7833333330000001</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>347.01</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2.1166666670000001</v>
       </c>
@@ -3580,7 +3577,7 @@
         <v>411.11</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2.4</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>488.16</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>2.7</v>
       </c>
@@ -3680,7 +3677,7 @@
         <v>582.75</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>616.30999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>3.2833333329999999</v>
       </c>
@@ -3780,7 +3777,7 @@
         <v>744.76</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>3.5666666669999998</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>756.41</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3.95</v>
       </c>
@@ -3880,7 +3877,7 @@
         <v>747.84</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>4.25</v>
       </c>
@@ -3930,7 +3927,7 @@
         <v>668.2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>4.516666667</v>
       </c>
@@ -3976,7 +3973,7 @@
         <v>590.46</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3996,7 +3993,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -4026,7 +4023,7 @@
       </c>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -4070,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>-0.86666666699999995</v>
       </c>
@@ -4120,7 +4117,7 @@
         <v>-25.29</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>-0.58333333300000001</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>-25.29</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>-0.31666666700000001</v>
       </c>
@@ -4220,7 +4217,7 @@
         <v>-25.25</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>0</v>
       </c>
@@ -4256,7 +4253,7 @@
       </c>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>0.31666666700000001</v>
       </c>
@@ -4306,7 +4303,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>0.58333333300000001</v>
       </c>
@@ -4356,7 +4353,7 @@
         <v>46.55</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>0.85</v>
       </c>
@@ -4406,7 +4403,7 @@
         <v>55.36</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>152.52000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1.4166666670000001</v>
       </c>
@@ -4506,7 +4503,7 @@
         <v>157.82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>1.683333333</v>
       </c>
@@ -4556,7 +4553,7 @@
         <v>160.04</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>1.933333333</v>
       </c>
@@ -4606,7 +4603,7 @@
         <v>160.66999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>2.2166666670000001</v>
       </c>
@@ -4656,7 +4653,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>2.483333333</v>
       </c>
@@ -4706,7 +4703,7 @@
         <v>148.34</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>2.75</v>
       </c>
@@ -4756,7 +4753,7 @@
         <v>139.69</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>3.016666667</v>
       </c>
@@ -4806,7 +4803,7 @@
         <v>141.97</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>3.6333333329999999</v>
       </c>
@@ -4856,7 +4853,7 @@
         <v>131.11000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>3.9</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>4.1666666670000003</v>
       </c>
@@ -4956,7 +4953,7 @@
         <v>83.83</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>4.4333333330000002</v>
       </c>
@@ -5006,7 +5003,7 @@
         <v>73.680000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -5040,7 +5037,7 @@
         <v>72.77</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -5079,25 +5076,25 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -5120,7 +5117,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -5150,10 +5147,10 @@
       </c>
       <c r="T2" s="2"/>
       <c r="V2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5197,10 +5194,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>-0.75</v>
       </c>
@@ -5250,7 +5247,7 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>-0.48</v>
       </c>
@@ -5300,7 +5297,7 @@
         <v>-22.17</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>-0.17</v>
       </c>
@@ -5350,7 +5347,7 @@
         <v>-21.79</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -5386,7 +5383,7 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.1</v>
       </c>
@@ -5436,7 +5433,7 @@
         <v>24.34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.4</v>
       </c>
@@ -5486,7 +5483,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.73</v>
       </c>
@@ -5536,7 +5533,7 @@
         <v>107.88</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.02</v>
       </c>
@@ -5586,7 +5583,7 @@
         <v>140.28</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.33</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>141.35</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.63</v>
       </c>
@@ -5686,7 +5683,7 @@
         <v>146.18</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -5736,7 +5733,7 @@
         <v>134.81</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2.3199999999999998</v>
       </c>
@@ -5786,7 +5783,7 @@
         <v>114.75</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>2.63</v>
       </c>
@@ -5836,7 +5833,7 @@
         <v>103.59</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>2.93</v>
       </c>
@@ -5886,7 +5883,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>3.25</v>
       </c>
@@ -5936,7 +5933,7 @@
         <v>72.97</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>3.58</v>
       </c>
@@ -5986,7 +5983,7 @@
         <v>165.83</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3.95</v>
       </c>
@@ -6036,7 +6033,7 @@
         <v>447.93</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>4.2300000000000004</v>
       </c>
@@ -6086,7 +6083,7 @@
         <v>738.69</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>4.57</v>
       </c>
@@ -6132,7 +6129,7 @@
         <v>830.46</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -6162,7 +6159,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6184,7 +6181,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -6206,7 +6203,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
@@ -6226,7 +6223,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6256,7 +6253,7 @@
       </c>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -6300,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>-0.45</v>
       </c>
@@ -6350,7 +6347,7 @@
         <v>-24.66</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>-0.18333333299999999</v>
       </c>
@@ -6400,7 +6397,7 @@
         <v>-24.75</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>0</v>
       </c>
@@ -6448,7 +6445,7 @@
         <v>-24.35</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>0.133333333</v>
       </c>
@@ -6486,7 +6483,7 @@
       </c>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>0.43333333299999999</v>
       </c>
@@ -6536,7 +6533,7 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>0.71666666700000003</v>
       </c>
@@ -6586,7 +6583,7 @@
         <v>71.42</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>1</v>
       </c>
@@ -6636,7 +6633,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>1.316666667</v>
       </c>
@@ -6686,7 +6683,7 @@
         <v>118.68</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>1.6</v>
       </c>
@@ -6736,7 +6733,7 @@
         <v>188.79</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>1.8666666670000001</v>
       </c>
@@ -6786,7 +6783,7 @@
         <v>103.72</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>2.15</v>
       </c>
@@ -6836,7 +6833,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>2.4333333330000002</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>2.7833333329999999</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>79.45</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>3.15</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>71.81</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>3.5666666669999998</v>
       </c>
@@ -7036,7 +7033,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>4.0333333329999999</v>
       </c>
@@ -7086,7 +7083,7 @@
         <v>45.95</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>4.3833333330000004</v>
       </c>
@@ -7136,7 +7133,7 @@
         <v>49.19</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -7182,7 +7179,7 @@
         <v>39.03</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -7224,7 +7221,7 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -7250,7 +7247,7 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -7281,29 +7278,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF56EF1B-3320-4EA4-9667-386D2D19722A}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -7326,7 +7323,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -7356,10 +7353,10 @@
       </c>
       <c r="T2" s="2"/>
       <c r="V2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -7403,10 +7400,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>-0.98333333300000003</v>
       </c>
@@ -7457,7 +7454,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>-0.65</v>
       </c>
@@ -7508,7 +7505,7 @@
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>-0.35</v>
       </c>
@@ -7555,7 +7552,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -7598,7 +7595,7 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.16666666699999999</v>
       </c>
@@ -7647,7 +7644,7 @@
       </c>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.58333333300000001</v>
       </c>
@@ -7698,7 +7695,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.88333333300000005</v>
       </c>
@@ -7749,7 +7746,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.233333333</v>
       </c>
@@ -7800,7 +7797,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.566666667</v>
       </c>
@@ -7847,7 +7844,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.9</v>
       </c>
@@ -7890,7 +7887,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2.2166666670000001</v>
       </c>
@@ -7933,7 +7930,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2.5499999999999998</v>
       </c>
@@ -7968,7 +7965,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>2.8833333329999999</v>
       </c>
@@ -8003,7 +8000,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -8030,7 +8027,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -8057,7 +8054,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -8079,7 +8076,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -8101,7 +8098,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -8123,7 +8120,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -8145,7 +8142,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8167,7 +8164,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -8189,7 +8186,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -8211,7 +8208,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -8231,7 +8228,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -8261,7 +8258,7 @@
       </c>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -8305,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>-0.81666666700000001</v>
       </c>
@@ -8355,7 +8352,7 @@
         <v>-38.659999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>-0.45</v>
       </c>
@@ -8405,7 +8402,7 @@
         <v>-20.38</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>-0.116666667</v>
       </c>
@@ -8451,7 +8448,7 @@
       </c>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>0</v>
       </c>
@@ -8491,7 +8488,7 @@
         <v>-21.29</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>0.25</v>
       </c>
@@ -8541,7 +8538,7 @@
         <v>-20.29</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>0.61666666699999995</v>
       </c>
@@ -8591,7 +8588,7 @@
         <v>-21.21</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>0.93333333299999999</v>
       </c>
@@ -8641,7 +8638,7 @@
         <v>-22.35</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>1.266666667</v>
       </c>
@@ -8691,7 +8688,7 @@
         <v>-21.89</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>1.5833333329999999</v>
       </c>
@@ -8741,7 +8738,7 @@
         <v>-22.76</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>1.9166666670000001</v>
       </c>
@@ -8783,7 +8780,7 @@
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
     </row>
-    <row r="40" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>2.2166666670000001</v>
       </c>
@@ -8825,7 +8822,7 @@
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>2.516666667</v>
       </c>
@@ -8863,7 +8860,7 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -8897,7 +8894,7 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -8927,7 +8924,7 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
-    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -8953,7 +8950,7 @@
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -8979,7 +8976,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -9005,7 +9002,7 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -9027,7 +9024,7 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -9049,7 +9046,7 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -9071,7 +9068,7 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -9106,25 +9103,25 @@
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
@@ -9147,7 +9144,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -9177,10 +9174,10 @@
       </c>
       <c r="T2" s="2"/>
       <c r="V2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -9224,10 +9221,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>-1</v>
       </c>
@@ -9278,7 +9275,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>-0.73333333300000003</v>
       </c>
@@ -9329,7 +9326,7 @@
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>-0.45</v>
       </c>
@@ -9378,7 +9375,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -9417,7 +9414,7 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.233333333</v>
       </c>
@@ -9468,7 +9465,7 @@
       </c>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.5</v>
       </c>
@@ -9519,7 +9516,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.76666666699999997</v>
       </c>
@@ -9570,7 +9567,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.05</v>
       </c>
@@ -9621,7 +9618,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.3333333329999999</v>
       </c>
@@ -9672,7 +9669,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.6</v>
       </c>
@@ -9723,7 +9720,7 @@
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1.9</v>
       </c>
@@ -9774,7 +9771,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -9825,7 +9822,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>2.5499999999999998</v>
       </c>
@@ -9872,7 +9869,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>2.8</v>
       </c>
@@ -9919,7 +9916,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>3.0666666669999998</v>
       </c>
@@ -9950,7 +9947,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -9972,7 +9969,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -9994,7 +9991,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -10016,7 +10013,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -10038,7 +10035,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -10060,7 +10057,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -10082,7 +10079,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -10104,7 +10101,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -10124,7 +10121,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -10154,7 +10151,7 @@
       </c>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -10198,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>-0.75</v>
       </c>
@@ -10249,7 +10246,7 @@
       </c>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>-0.45</v>
       </c>
@@ -10300,7 +10297,7 @@
       </c>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>-0.15</v>
       </c>
@@ -10347,7 +10344,7 @@
       <c r="T32" s="9"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>0</v>
       </c>
@@ -10388,7 +10385,7 @@
       </c>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>0.133333333</v>
       </c>
@@ -10439,7 +10436,7 @@
       </c>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>0.4</v>
       </c>
@@ -10490,7 +10487,7 @@
       </c>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>0.68333333299999999</v>
       </c>
@@ -10541,7 +10538,7 @@
       </c>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>0.96666666700000003</v>
       </c>
@@ -10592,7 +10589,7 @@
       </c>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>1.233333333</v>
       </c>
@@ -10643,7 +10640,7 @@
       </c>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>1.516666667</v>
       </c>
@@ -10694,7 +10691,7 @@
       </c>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>1.8333333329999999</v>
       </c>
@@ -10745,7 +10742,7 @@
       </c>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>2.1333333329999999</v>
       </c>
@@ -10796,7 +10793,7 @@
       </c>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>2.4333333330000002</v>
       </c>
@@ -10847,7 +10844,7 @@
       </c>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>2.9666666670000001</v>
       </c>
@@ -10886,7 +10883,7 @@
       <c r="T43" s="9"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -10909,7 +10906,7 @@
       <c r="T44" s="9"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -10931,7 +10928,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -10962,29 +10959,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016EAFAF-C7AC-4006-AB1D-1C30DB28C7D4}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>83</v>
       </c>
@@ -11007,7 +11004,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -11037,10 +11034,10 @@
       </c>
       <c r="T2" s="2"/>
       <c r="V2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -11084,10 +11081,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>-0.73333333300000003</v>
       </c>
@@ -11138,7 +11135,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>-0.45</v>
       </c>
@@ -11189,7 +11186,7 @@
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>-0.15</v>
       </c>
@@ -11234,7 +11231,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -11277,7 +11274,7 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.133333333</v>
       </c>
@@ -11328,7 +11325,7 @@
       </c>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.41666666699999999</v>
       </c>
@@ -11379,7 +11376,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.73333333300000003</v>
       </c>
@@ -11430,7 +11427,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.016666667</v>
       </c>
@@ -11481,7 +11478,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.3333333329999999</v>
       </c>
@@ -11532,7 +11529,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.6333333329999999</v>
       </c>
@@ -11583,7 +11580,7 @@
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1.933333333</v>
       </c>
@@ -11634,7 +11631,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2.2166666670000001</v>
       </c>
@@ -11685,7 +11682,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>2.516666667</v>
       </c>
@@ -11736,7 +11733,7 @@
       </c>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>2.85</v>
       </c>
@@ -11771,7 +11768,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -11798,7 +11795,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -11820,7 +11817,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -11842,7 +11839,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -11864,7 +11861,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -11886,7 +11883,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -11908,7 +11905,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -11930,7 +11927,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -11952,7 +11949,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -11972,7 +11969,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -11997,12 +11994,8 @@
         <v>97</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="S28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -12039,165 +12032,138 @@
       <c r="Q29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>-0.78333333299999997</v>
+        <v>-0.72</v>
       </c>
       <c r="B30" s="9">
-        <v>-21.29</v>
+        <v>-22.03</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9">
-        <v>-0.72</v>
+        <v>-0.78</v>
       </c>
       <c r="E30" s="9">
-        <v>-22.03</v>
+        <v>-21.63</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9">
-        <v>-0.78</v>
+        <v>-0.43333333299999999</v>
       </c>
       <c r="H30" s="9">
-        <v>-21.63</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9">
-        <v>-0.43333333299999999</v>
+        <v>-0.71666666700000003</v>
       </c>
       <c r="K30" s="9">
-        <v>-4.6500000000000004</v>
+        <v>-23.46</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9">
-        <v>-0.71666666700000003</v>
+        <v>-0.61666666699999995</v>
       </c>
       <c r="N30" s="9">
-        <v>-23.46</v>
+        <v>-24.66</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9">
-        <v>-0.61666666699999995</v>
+        <v>-0.7</v>
       </c>
       <c r="Q30" s="9">
-        <v>-24.66</v>
-      </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9">
-        <v>-0.7</v>
-      </c>
-      <c r="T30" s="9">
         <v>-25.19</v>
       </c>
-      <c r="U30" s="10"/>
-    </row>
-    <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>-0.5</v>
+        <v>-0.42</v>
       </c>
       <c r="B31" s="9">
-        <v>-21.12</v>
+        <v>-21.99</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9">
-        <v>-0.42</v>
+        <v>-0.48</v>
       </c>
       <c r="E31" s="9">
-        <v>-21.99</v>
+        <v>-20.86</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9">
-        <v>-0.48</v>
+        <v>-0.15</v>
       </c>
       <c r="H31" s="9">
-        <v>-20.86</v>
+        <v>-23.5</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9">
-        <v>-0.15</v>
+        <v>-0.41666666699999999</v>
       </c>
       <c r="K31" s="9">
-        <v>-23.5</v>
+        <v>-24.32</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9">
-        <v>-0.41666666699999999</v>
+        <v>-0.35</v>
       </c>
       <c r="N31" s="9">
-        <v>-24.32</v>
+        <v>-25.49</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9">
-        <v>-0.35</v>
+        <v>-0.43333333299999999</v>
       </c>
       <c r="Q31" s="9">
-        <v>-25.49</v>
-      </c>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9">
-        <v>-0.43333333299999999</v>
-      </c>
-      <c r="T31" s="9">
         <v>-25.69</v>
       </c>
-      <c r="U31" s="10"/>
-    </row>
-    <row r="32" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>-0.15</v>
       </c>
       <c r="B32" s="9">
-        <v>-21.24</v>
+        <v>-21.69</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="E32" s="9">
-        <v>-21.69</v>
+        <v>-20.76</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9">
-        <v>-0.13</v>
-      </c>
-      <c r="H32" s="9">
-        <v>-20.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9"/>
+        <v>-0.116666667</v>
+      </c>
+      <c r="K32" s="9">
+        <v>-24.75</v>
+      </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9">
         <v>-0.116666667</v>
       </c>
       <c r="N32" s="9">
-        <v>-24.75</v>
+        <v>-26.18</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9">
-        <v>-0.116666667</v>
+        <v>-0.15</v>
       </c>
       <c r="Q32" s="9">
-        <v>-26.18</v>
-      </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9">
-        <v>-0.15</v>
-      </c>
-      <c r="T32" s="9">
         <v>-25.14</v>
       </c>
-      <c r="U32" s="10"/>
-    </row>
-    <row r="33" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>0</v>
       </c>
@@ -12209,16 +12175,16 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9"/>
+        <v>0.15</v>
+      </c>
+      <c r="H33" s="17">
+        <v>-25.02</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K33" s="17">
-        <v>-25.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9">
         <v>0</v>
@@ -12229,516 +12195,441 @@
         <v>0</v>
       </c>
       <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9">
-        <v>0</v>
-      </c>
-      <c r="T33" s="9"/>
-      <c r="U33" s="10"/>
-    </row>
-    <row r="34" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
-        <v>0.133333333</v>
-      </c>
-      <c r="B34" s="17">
-        <v>-24.91</v>
+        <v>0.13</v>
+      </c>
+      <c r="B34" s="9">
+        <v>-24.48</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E34" s="9">
-        <v>-24.48</v>
+        <v>-23.25</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9">
-        <v>0.15</v>
+        <v>0.43333333299999999</v>
       </c>
       <c r="H34" s="9">
-        <v>-23.25</v>
+        <v>-24.04</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9">
-        <v>0.43333333299999999</v>
+        <v>0.21666666700000001</v>
       </c>
       <c r="K34" s="9">
-        <v>-24.04</v>
+        <v>-24.82</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9">
-        <v>0.21666666700000001</v>
+        <v>0.2</v>
       </c>
       <c r="N34" s="9">
-        <v>-24.82</v>
+        <v>-28.81</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="Q34" s="9">
-        <v>-28.81</v>
-      </c>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="T34" s="9">
         <v>-29.28</v>
       </c>
-      <c r="U34" s="10"/>
-    </row>
-    <row r="35" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="B35" s="9">
-        <v>-22.24</v>
+        <v>-22.85</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="E35" s="9">
-        <v>-22.85</v>
+        <v>-20.74</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9">
-        <v>0.47</v>
+        <v>0.71666666700000003</v>
       </c>
       <c r="H35" s="9">
-        <v>-20.74</v>
+        <v>-26.18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9">
-        <v>0.71666666700000003</v>
+        <v>0.53333333299999997</v>
       </c>
       <c r="K35" s="9">
-        <v>-26.18</v>
+        <v>-25.45</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9">
-        <v>0.53333333299999997</v>
+        <v>0.43333333299999999</v>
       </c>
       <c r="N35" s="9">
-        <v>-25.45</v>
+        <v>-26.09</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9">
         <v>0.43333333299999999</v>
       </c>
       <c r="Q35" s="9">
-        <v>-26.09</v>
-      </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9">
-        <v>0.43333333299999999</v>
-      </c>
-      <c r="T35" s="9">
         <v>-27.08</v>
       </c>
-      <c r="U35" s="10"/>
-    </row>
-    <row r="36" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
-        <v>0.76666666699999997</v>
+        <v>0.72</v>
       </c>
       <c r="B36" s="9">
-        <v>-20.82</v>
+        <v>-22.71</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9">
-        <v>0.72</v>
+        <v>1.05</v>
       </c>
       <c r="E36" s="9">
-        <v>-22.71</v>
+        <v>-21.14</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H36" s="9">
-        <v>-21.14</v>
+        <v>-25.61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9">
-        <v>1</v>
+        <v>0.78333333299999997</v>
       </c>
       <c r="K36" s="9">
-        <v>-25.61</v>
+        <v>-25.14</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9">
-        <v>0.78333333299999997</v>
+        <v>0.68333333299999999</v>
       </c>
       <c r="N36" s="9">
-        <v>-25.14</v>
+        <v>-25.89</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9">
         <v>0.68333333299999999</v>
       </c>
       <c r="Q36" s="9">
-        <v>-25.89</v>
-      </c>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9">
-        <v>0.68333333299999999</v>
-      </c>
-      <c r="T36" s="9">
         <v>-26.08</v>
       </c>
-      <c r="U36" s="10"/>
-    </row>
-    <row r="37" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <v>1.2166666669999999</v>
+        <v>1.07</v>
       </c>
       <c r="B37" s="9">
-        <v>-22.41</v>
+        <v>-22.51</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="E37" s="9">
-        <v>-22.51</v>
+        <v>-21.59</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9">
-        <v>1.35</v>
+        <v>1.2833333330000001</v>
       </c>
       <c r="H37" s="9">
-        <v>-21.59</v>
+        <v>-25.05</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9">
-        <v>1.2833333330000001</v>
+        <v>1.0833333329999999</v>
       </c>
       <c r="K37" s="9">
-        <v>-25.05</v>
+        <v>-25.04</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9">
-        <v>1.0833333329999999</v>
+        <v>0.96666666700000003</v>
       </c>
       <c r="N37" s="9">
-        <v>-25.04</v>
+        <v>-27.68</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9">
-        <v>0.96666666700000003</v>
+        <v>0.98333333300000003</v>
       </c>
       <c r="Q37" s="9">
-        <v>-27.68</v>
-      </c>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9">
-        <v>0.98333333300000003</v>
-      </c>
-      <c r="T37" s="9">
         <v>-25.71</v>
       </c>
-      <c r="U37" s="10"/>
-    </row>
-    <row r="38" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
-        <v>1.483333333</v>
+        <v>1.37</v>
       </c>
       <c r="B38" s="9">
-        <v>-21.73</v>
+        <v>-22.33</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="E38" s="9">
-        <v>-22.33</v>
+        <v>-21.98</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="H38" s="9">
-        <v>-21.98</v>
+        <v>1.6</v>
+      </c>
+      <c r="H38" s="17">
+        <v>-20.239999999999998</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="K38" s="17">
-        <v>-20.239999999999998</v>
+        <v>1.3666666670000001</v>
+      </c>
+      <c r="K38" s="9">
+        <v>-25.45</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9">
-        <v>1.3666666670000001</v>
+        <v>1.183333333</v>
       </c>
       <c r="N38" s="9">
-        <v>-25.45</v>
+        <v>-26.87</v>
       </c>
       <c r="O38" s="9"/>
       <c r="P38" s="9">
-        <v>1.183333333</v>
+        <v>1.25</v>
       </c>
       <c r="Q38" s="9">
-        <v>-26.87</v>
-      </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="T38" s="9">
         <v>-26.37</v>
       </c>
-      <c r="U38" s="10"/>
-    </row>
-    <row r="39" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
-        <v>1.733333333</v>
+        <v>1.67</v>
       </c>
       <c r="B39" s="9">
-        <v>-21.35</v>
+        <v>-22.72</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="E39" s="9">
-        <v>-22.72</v>
+        <v>-23.67</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9">
-        <v>1.98</v>
+        <v>1.933333333</v>
       </c>
       <c r="H39" s="9">
-        <v>-23.67</v>
+        <v>-23.49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9">
-        <v>1.933333333</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="K39" s="9">
-        <v>-23.49</v>
+        <v>-25.12</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9">
-        <v>1.6666666670000001</v>
+        <v>1.4166666670000001</v>
       </c>
       <c r="N39" s="9">
-        <v>-25.12</v>
+        <v>-26.69</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="9">
-        <v>1.4166666670000001</v>
+        <v>1.5333333330000001</v>
       </c>
       <c r="Q39" s="9">
-        <v>-26.69</v>
-      </c>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9">
-        <v>1.5333333330000001</v>
-      </c>
-      <c r="T39" s="9">
         <v>-26.39</v>
       </c>
-      <c r="U39" s="10"/>
-    </row>
-    <row r="40" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
-        <v>2.0499999999999998</v>
+        <v>1.93</v>
       </c>
       <c r="B40" s="9">
-        <v>-21.52</v>
+        <v>-22.85</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="E40" s="9">
-        <v>-22.85</v>
+        <v>-22.24</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9">
-        <v>2.25</v>
+        <v>2.266666667</v>
       </c>
       <c r="H40" s="9">
-        <v>-22.24</v>
+        <v>-23.41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9">
-        <v>2.266666667</v>
+        <v>1.9666666669999999</v>
       </c>
       <c r="K40" s="9">
-        <v>-23.41</v>
+        <v>-24.44</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9">
-        <v>1.9666666669999999</v>
+        <v>1.7166666669999999</v>
       </c>
       <c r="N40" s="9">
-        <v>-24.44</v>
+        <v>-25.96</v>
       </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9">
-        <v>1.7166666669999999</v>
+        <v>1.7833333330000001</v>
       </c>
       <c r="Q40" s="9">
-        <v>-25.96</v>
-      </c>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9">
-        <v>1.7833333330000001</v>
-      </c>
-      <c r="T40" s="9">
         <v>-26.48</v>
       </c>
-      <c r="U40" s="10"/>
-    </row>
-    <row r="41" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
-        <v>2.3833333329999999</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="B41" s="9">
-        <v>-21.52</v>
+        <v>-22.71</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9">
-        <v>2.2200000000000002</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E41" s="9">
-        <v>-22.71</v>
+        <v>-22.78</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9">
-        <v>2.5299999999999998</v>
+        <v>2.6833333330000002</v>
       </c>
       <c r="H41" s="9">
-        <v>-22.78</v>
+        <v>-20.37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9">
-        <v>2.6833333330000002</v>
+        <v>2.25</v>
       </c>
       <c r="K41" s="9">
-        <v>-20.37</v>
+        <v>-23.38</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9">
-        <v>2.25</v>
+        <v>1.9666666669999999</v>
       </c>
       <c r="N41" s="9">
-        <v>-23.38</v>
+        <v>-26.04</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9">
-        <v>1.9666666669999999</v>
+        <v>2.0666666669999998</v>
       </c>
       <c r="Q41" s="9">
-        <v>-26.04</v>
-      </c>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9">
-        <v>2.0666666669999998</v>
-      </c>
-      <c r="T41" s="9">
         <v>-25.77</v>
       </c>
-      <c r="U41" s="10"/>
-    </row>
-    <row r="42" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
-        <v>2.766666667</v>
+        <v>2.52</v>
       </c>
       <c r="B42" s="9">
-        <v>-22.87</v>
+        <v>-22.73</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="E42" s="9">
-        <v>-22.73</v>
+        <v>-22.35</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9">
-        <v>2.82</v>
+        <v>2.9333333330000002</v>
       </c>
       <c r="H42" s="9">
-        <v>-22.35</v>
+        <v>-22.45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9">
-        <v>2.9333333330000002</v>
+        <v>2.6</v>
       </c>
       <c r="K42" s="9">
-        <v>-22.45</v>
+        <v>-24.14</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N42" s="9">
-        <v>-24.14</v>
+        <v>-26.04</v>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9">
-        <v>2.2000000000000002</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="Q42" s="9">
-        <v>-26.04</v>
-      </c>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9">
-        <v>2.3333333330000001</v>
-      </c>
-      <c r="T42" s="9">
         <v>-24.71</v>
       </c>
-      <c r="U42" s="10"/>
-    </row>
-    <row r="43" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
-        <v>3.0333333329999999</v>
-      </c>
-      <c r="B43" s="9">
-        <v>-21.82</v>
-      </c>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="D43" s="9">
+        <v>3.1333333329999999</v>
+      </c>
+      <c r="E43" s="9">
+        <v>-21.87</v>
+      </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="9">
-        <v>3.1333333329999999</v>
-      </c>
-      <c r="H43" s="9">
-        <v>-21.87</v>
-      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="J43" s="9">
+        <v>2.8666666670000001</v>
+      </c>
+      <c r="K43" s="9">
+        <v>-24.46</v>
+      </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9">
-        <v>2.8666666670000001</v>
+        <v>2.1666666669999999</v>
       </c>
       <c r="N43" s="9">
-        <v>-24.46</v>
+        <v>-26.49</v>
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9">
-        <v>2.1666666669999999</v>
+        <v>2.6333333329999999</v>
       </c>
       <c r="Q43" s="9">
-        <v>-26.49</v>
-      </c>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9">
-        <v>2.6333333329999999</v>
-      </c>
-      <c r="T43" s="9">
         <v>-24.85</v>
       </c>
-      <c r="U43" s="10"/>
-    </row>
-    <row r="44" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -12751,24 +12642,21 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
+      <c r="M44" s="9">
+        <v>2.4333333330000002</v>
+      </c>
+      <c r="N44" s="9">
+        <v>-25.7</v>
+      </c>
       <c r="O44" s="9"/>
       <c r="P44" s="9">
-        <v>2.4333333330000002</v>
+        <v>2.9166666669999999</v>
       </c>
       <c r="Q44" s="9">
-        <v>-25.7</v>
-      </c>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9">
-        <v>2.9166666669999999</v>
-      </c>
-      <c r="T44" s="9">
         <v>25.1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -12781,18 +12669,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
+      <c r="M45" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="N45" s="9">
+        <v>-26.79</v>
+      </c>
       <c r="O45" s="9"/>
-      <c r="P45" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>-26.79</v>
-      </c>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12807,27 +12692,27 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -12848,40 +12733,40 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K2" s="12"/>
       <c r="M2" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="S2" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T2" s="12"/>
       <c r="V2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -12925,10 +12810,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>-0.81666666700000001</v>
       </c>
@@ -12979,7 +12864,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>-0.51666666699999997</v>
       </c>
@@ -13030,7 +12915,7 @@
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>-0.21666666700000001</v>
       </c>
@@ -13081,7 +12966,7 @@
       </c>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0</v>
       </c>
@@ -13118,7 +13003,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.18333333299999999</v>
       </c>
@@ -13169,7 +13054,7 @@
       </c>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.58333333300000001</v>
       </c>
@@ -13220,7 +13105,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.9</v>
       </c>
@@ -13271,7 +13156,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1.2833333330000001</v>
       </c>
@@ -13322,7 +13207,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1.6333333329999999</v>
       </c>
@@ -13373,7 +13258,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2.016666667</v>
       </c>
@@ -13424,7 +13309,7 @@
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>2.3666666670000001</v>
       </c>
@@ -13475,7 +13360,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2.6833333330000002</v>
       </c>
@@ -13526,7 +13411,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -13561,7 +13446,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -13588,7 +13473,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -13611,7 +13496,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -13633,7 +13518,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -13655,9 +13540,9 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -13675,37 +13560,37 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" s="12"/>
       <c r="M22" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N22" s="12"/>
       <c r="P22" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="12"/>
       <c r="S22" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
@@ -13749,7 +13634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>-0.81666666700000001</v>
       </c>
@@ -13800,7 +13685,7 @@
       </c>
       <c r="U24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>-0.51666666699999997</v>
       </c>
@@ -13851,7 +13736,7 @@
       </c>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>-0.21666666700000001</v>
       </c>
@@ -13898,7 +13783,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>0</v>
       </c>
@@ -13939,7 +13824,7 @@
       </c>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>0.18333333299999999</v>
       </c>
@@ -13990,7 +13875,7 @@
       </c>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.46666666699999998</v>
       </c>
@@ -14041,7 +13926,7 @@
       </c>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>0.8</v>
       </c>
@@ -14092,7 +13977,7 @@
       </c>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1.1166666670000001</v>
       </c>
@@ -14143,7 +14028,7 @@
       </c>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1.3833333329999999</v>
       </c>
@@ -14194,7 +14079,7 @@
       </c>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1.7</v>
       </c>
@@ -14245,7 +14130,7 @@
       </c>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1.983333333</v>
       </c>
@@ -14296,7 +14181,7 @@
       </c>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>2.266666667</v>
       </c>
@@ -14347,7 +14232,7 @@
       </c>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>2.5499999999999998</v>
       </c>
@@ -14395,27 +14280,27 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -14436,40 +14321,40 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:23" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K2" s="12"/>
       <c r="M2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="S2" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T2" s="12"/>
       <c r="V2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -14513,11 +14398,11 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>-0.83333333300000001</v>
       </c>
@@ -14568,7 +14453,7 @@
       </c>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>-0.51666666699999997</v>
       </c>
@@ -14619,7 +14504,7 @@
       </c>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>-0.21666666700000001</v>
       </c>
@@ -14666,7 +14551,7 @@
       <c r="T6" s="7"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0</v>
       </c>
@@ -14709,7 +14594,7 @@
       </c>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.116666667</v>
       </c>
@@ -14758,7 +14643,7 @@
       </c>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.45</v>
       </c>
@@ -14809,7 +14694,7 @@
       </c>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.73333333300000003</v>
       </c>
@@ -14860,7 +14745,7 @@
       </c>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1.0333333330000001</v>
       </c>
@@ -14911,7 +14796,7 @@
       </c>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1.35</v>
       </c>
@@ -14962,7 +14847,7 @@
       </c>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1.65</v>
       </c>
@@ -15013,7 +14898,7 @@
       </c>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1.9666666669999999</v>
       </c>
@@ -15051,7 +14936,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2.266666667</v>
       </c>
@@ -15090,7 +14975,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>2.5833333330000001</v>
       </c>
@@ -15121,7 +15006,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -15144,7 +15029,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -15167,7 +15052,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -15189,7 +15074,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:23" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -15211,9 +15096,9 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:23" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -15231,41 +15116,41 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K22" s="12"/>
       <c r="M22" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N22" s="12"/>
       <c r="P22" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="12"/>
       <c r="S22" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W22" s="12"/>
     </row>
-    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
@@ -15315,7 +15200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>-0.81666666700000001</v>
       </c>
@@ -15365,7 +15250,7 @@
         <v>-22.34</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>-0.5</v>
       </c>
@@ -15415,7 +15300,7 @@
         <v>-21.15</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>-0.116666667</v>
       </c>
@@ -15463,7 +15348,7 @@
         <v>-20.29</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>0</v>
       </c>
@@ -15499,7 +15384,7 @@
       </c>
       <c r="W27" s="7"/>
     </row>
-    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>0.25</v>
       </c>
@@ -15549,7 +15434,7 @@
         <v>-22.51</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.6</v>
       </c>
@@ -15599,7 +15484,7 @@
         <v>-19.97</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>0.93333333299999999</v>
       </c>
@@ -15649,7 +15534,7 @@
         <v>-19.07</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1.2833333330000001</v>
       </c>
@@ -15699,7 +15584,7 @@
         <v>-18.7</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1.6166666670000001</v>
       </c>
@@ -15749,7 +15634,7 @@
         <v>-20.93</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1.95</v>
       </c>
@@ -15796,7 +15681,7 @@
         <v>-19.809999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -15833,7 +15718,7 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
     </row>
-    <row r="35" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -15873,31 +15758,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B39CCA4-3DB0-44CB-90E9-1C9CCA0C316E}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="V2:V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -15918,40 +15803,40 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K2" s="12"/>
       <c r="M2" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="S2" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T2" s="12"/>
       <c r="V2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -15995,10 +15880,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>-1.2166666669999999</v>
       </c>
@@ -16049,7 +15934,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>-0.43333333299999999</v>
       </c>
@@ -16100,7 +15985,7 @@
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>-0.133333333</v>
       </c>
@@ -16147,7 +16032,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0</v>
       </c>
@@ -16188,7 +16073,7 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.133333333</v>
       </c>
@@ -16239,7 +16124,7 @@
       </c>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.43333333299999999</v>
       </c>
@@ -16290,7 +16175,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.73333333300000003</v>
       </c>
@@ -16341,7 +16226,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1.05</v>
       </c>
@@ -16392,7 +16277,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1.3333333329999999</v>
       </c>
@@ -16443,7 +16328,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1.6166666670000001</v>
       </c>
@@ -16494,7 +16379,7 @@
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1.95</v>
       </c>
@@ -16545,7 +16430,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2.266666667</v>
       </c>
@@ -16596,7 +16481,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>2.6166666670000001</v>
       </c>
@@ -16635,7 +16520,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -16658,7 +16543,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -16681,7 +16566,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -16703,7 +16588,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -16725,9 +16610,9 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -16745,37 +16630,37 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K22" s="12"/>
       <c r="M22" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N22" s="12"/>
       <c r="P22" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="12"/>
       <c r="S22" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
@@ -16819,7 +16704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>-0.45</v>
       </c>
@@ -16870,7 +16755,7 @@
       </c>
       <c r="U24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>-0.18333333299999999</v>
       </c>
@@ -16921,7 +16806,7 @@
       </c>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>0</v>
       </c>
@@ -16962,7 +16847,7 @@
       </c>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>8.3333332999999996E-2</v>
       </c>
@@ -17011,7 +16896,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>0.383333333</v>
       </c>
@@ -17062,7 +16947,7 @@
       </c>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.68333333299999999</v>
       </c>
@@ -17113,7 +16998,7 @@
       </c>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>0.96666666700000003</v>
       </c>
@@ -17164,7 +17049,7 @@
       </c>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1.266666667</v>
       </c>
@@ -17215,7 +17100,7 @@
       </c>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1.55</v>
       </c>
@@ -17266,7 +17151,7 @@
       </c>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1.8666666670000001</v>
       </c>
@@ -17313,7 +17198,7 @@
       </c>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>2.1666666669999999</v>
       </c>
@@ -17356,7 +17241,7 @@
       </c>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>2.3833333329999999</v>
       </c>
@@ -17391,7 +17276,7 @@
       </c>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
